--- a/data/bacnotan.xlsx
+++ b/data/bacnotan.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="3690" yWindow="195" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,81 +16,903 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="25">
-  <si>
-    <t>Carcarmay</t>
-  </si>
-  <si>
-    <t>Bello, Renato</t>
-  </si>
-  <si>
-    <t>Cardinez, Janet</t>
-  </si>
-  <si>
-    <t>Julaiala, Henry</t>
-  </si>
-  <si>
-    <t>Julaila, Leopoldo</t>
-  </si>
-  <si>
-    <t>Licos, Miguel</t>
-  </si>
-  <si>
-    <t>Licos, Ricarte</t>
-  </si>
-  <si>
-    <t>Morales, Florenda</t>
-  </si>
-  <si>
-    <t>Navarete, June</t>
-  </si>
-  <si>
-    <t>Ordanza, Leonor</t>
-  </si>
-  <si>
-    <t>Pascua, Alicia</t>
-  </si>
-  <si>
-    <t>Pascua, Clarita</t>
-  </si>
-  <si>
-    <t>Pascua, Juvenal</t>
-  </si>
-  <si>
-    <t>Pascua, Letecia</t>
-  </si>
-  <si>
-    <t>Pascua, Rosalyn</t>
-  </si>
-  <si>
-    <t>Ribu, Florida</t>
-  </si>
-  <si>
-    <t>Romero, Pedro</t>
-  </si>
-  <si>
-    <t>Tabafunda, Benjamin</t>
-  </si>
-  <si>
-    <t>Tabafunda, Edmund</t>
-  </si>
-  <si>
-    <t>Tabafunda, Edward</t>
-  </si>
-  <si>
-    <t>Tabafunda, Jayson</t>
-  </si>
-  <si>
-    <t>Tabafunda, Juanito</t>
-  </si>
-  <si>
-    <t>Tabafunda, Remedios</t>
-  </si>
-  <si>
-    <t>Tabafunda, Remegio</t>
-  </si>
-  <si>
-    <t>Vilog, Emilito</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="299">
+  <si>
+    <t>NAGSIMBAANAN</t>
+  </si>
+  <si>
+    <t>Emelita Guray</t>
+  </si>
+  <si>
+    <t>Policronio Oropilla</t>
+  </si>
+  <si>
+    <t>Jun Oropilla</t>
+  </si>
+  <si>
+    <t>Arsenio Dy Jr.</t>
+  </si>
+  <si>
+    <t>Antonio Costales</t>
+  </si>
+  <si>
+    <t>Freddie Jabla</t>
+  </si>
+  <si>
+    <t>Junjun Costales</t>
+  </si>
+  <si>
+    <t>Elisa Basco</t>
+  </si>
+  <si>
+    <t>Rufina Oropilla</t>
+  </si>
+  <si>
+    <t>Celso Serdoncillo</t>
+  </si>
+  <si>
+    <t>Marcelino Ganigan</t>
+  </si>
+  <si>
+    <t>Susana Ganigan</t>
+  </si>
+  <si>
+    <t>Romela Cabie</t>
+  </si>
+  <si>
+    <t>Fermenlito Javier Sr.</t>
+  </si>
+  <si>
+    <t>Ronilo Javier</t>
+  </si>
+  <si>
+    <t>Cherilyn Pabalan</t>
+  </si>
+  <si>
+    <t>Genalyn Patricio</t>
+  </si>
+  <si>
+    <t>Modesto Cardinez</t>
+  </si>
+  <si>
+    <t>Nenita Guerrero</t>
+  </si>
+  <si>
+    <t>Elizabeth Corpuz</t>
+  </si>
+  <si>
+    <t>Donna Mae Gimpaya</t>
+  </si>
+  <si>
+    <t>Arlene Pabalan</t>
+  </si>
+  <si>
+    <t>Eduardo Pabalan II</t>
+  </si>
+  <si>
+    <t>RAOIS</t>
+  </si>
+  <si>
+    <t>Condilaria Domingo</t>
+  </si>
+  <si>
+    <t>Bella Domingo</t>
+  </si>
+  <si>
+    <t>Rhea Sabado</t>
+  </si>
+  <si>
+    <t>Carol Jane Panaguiton</t>
+  </si>
+  <si>
+    <t>Paz Canolla</t>
+  </si>
+  <si>
+    <t>Sonny Mamuri</t>
+  </si>
+  <si>
+    <t>Noel Almojuela</t>
+  </si>
+  <si>
+    <t>Jose Rodriguez</t>
+  </si>
+  <si>
+    <t>Vilma Balmoja</t>
+  </si>
+  <si>
+    <t>Sigundina Cariaso</t>
+  </si>
+  <si>
+    <t>Gertrudes Obra</t>
+  </si>
+  <si>
+    <t>Jeffrey Cariaso</t>
+  </si>
+  <si>
+    <t>Nilerva Abalos</t>
+  </si>
+  <si>
+    <t>Rhea Borja</t>
+  </si>
+  <si>
+    <t>Rosemarie Liberato</t>
+  </si>
+  <si>
+    <t>Aguido Cariaso</t>
+  </si>
+  <si>
+    <t>Enrique Oliveros</t>
+  </si>
+  <si>
+    <t>Celedonia Tobias</t>
+  </si>
+  <si>
+    <t>Reynaldo Ocaoi</t>
+  </si>
+  <si>
+    <t>Reynaldo Santos</t>
+  </si>
+  <si>
+    <t>Enrique Cruz</t>
+  </si>
+  <si>
+    <t>Henry Dacanay</t>
+  </si>
+  <si>
+    <t>Rodolfo Olidan</t>
+  </si>
+  <si>
+    <t>Alexander Ancheta</t>
+  </si>
+  <si>
+    <t>Climente Landingin</t>
+  </si>
+  <si>
+    <t>Teresita Tobias</t>
+  </si>
+  <si>
+    <t>Paterno Mitrado</t>
+  </si>
+  <si>
+    <t>Romulo Mitrado</t>
+  </si>
+  <si>
+    <t>Paterno Olidan</t>
+  </si>
+  <si>
+    <t>Wilson Olidan</t>
+  </si>
+  <si>
+    <t>Rosalina Mago</t>
+  </si>
+  <si>
+    <t>Samuel Ocaoi</t>
+  </si>
+  <si>
+    <t>Rechie Ocaoi</t>
+  </si>
+  <si>
+    <t>Michael Ocaoi</t>
+  </si>
+  <si>
+    <t>Gerardo Obra Sr.</t>
+  </si>
+  <si>
+    <t>Michael Obra</t>
+  </si>
+  <si>
+    <t>Gerardo Obra Jr.</t>
+  </si>
+  <si>
+    <t>Rosebella Obra</t>
+  </si>
+  <si>
+    <t>Albert Obra</t>
+  </si>
+  <si>
+    <t>Francisco Obra Sr.</t>
+  </si>
+  <si>
+    <t>Francisco Obra Jr.</t>
+  </si>
+  <si>
+    <t>Simeon Baustista Jr.</t>
+  </si>
+  <si>
+    <t>Ronaldo Bautista</t>
+  </si>
+  <si>
+    <t>Lorena Bautista</t>
+  </si>
+  <si>
+    <t>Nelson Buton</t>
+  </si>
+  <si>
+    <t>Perla Tagupa</t>
+  </si>
+  <si>
+    <t>Eusebio Bautista Jr.</t>
+  </si>
+  <si>
+    <t>Erliinda Oliveros</t>
+  </si>
+  <si>
+    <t>June Oliveros</t>
+  </si>
+  <si>
+    <t>Arsenia Carbonell</t>
+  </si>
+  <si>
+    <t>Marjorie Villanueva</t>
+  </si>
+  <si>
+    <t>Ariel Alcantara</t>
+  </si>
+  <si>
+    <t>Jerome Dacanay</t>
+  </si>
+  <si>
+    <t>Maribel Sauro</t>
+  </si>
+  <si>
+    <t>Ismael Sauro Jr.</t>
+  </si>
+  <si>
+    <t>Dimetrio Olidan Jr.</t>
+  </si>
+  <si>
+    <t>Alfredo Carbonell</t>
+  </si>
+  <si>
+    <t>Artemeo Oredina Jr.</t>
+  </si>
+  <si>
+    <t>Marivic Oredina</t>
+  </si>
+  <si>
+    <t>Alex Oredina</t>
+  </si>
+  <si>
+    <t>Evelyn dela Peña</t>
+  </si>
+  <si>
+    <t>Asuncion carig</t>
+  </si>
+  <si>
+    <t>Ernie Valdez</t>
+  </si>
+  <si>
+    <t>Clemente Villanueva</t>
+  </si>
+  <si>
+    <t>Francisco Villanueva</t>
+  </si>
+  <si>
+    <t>Susan Vilasco</t>
+  </si>
+  <si>
+    <t>Estrella Obra</t>
+  </si>
+  <si>
+    <t>Reynaldo Obra</t>
+  </si>
+  <si>
+    <t>Corazon Rabara</t>
+  </si>
+  <si>
+    <t>Eduard Lacambra</t>
+  </si>
+  <si>
+    <t>Ernesto Jimenez</t>
+  </si>
+  <si>
+    <t>Milagros Perez</t>
+  </si>
+  <si>
+    <t>Lolita Bassig</t>
+  </si>
+  <si>
+    <t>Marco Perez</t>
+  </si>
+  <si>
+    <t>Rodel Oliveros</t>
+  </si>
+  <si>
+    <t>Leonida Cariaso</t>
+  </si>
+  <si>
+    <t>Zenaida Cariaso</t>
+  </si>
+  <si>
+    <t>Fernando Carig</t>
+  </si>
+  <si>
+    <t>Basilio Obra Jr.</t>
+  </si>
+  <si>
+    <t>Leonardo Nebrija</t>
+  </si>
+  <si>
+    <t>Wilma Cabanban</t>
+  </si>
+  <si>
+    <t>Hector Buton</t>
+  </si>
+  <si>
+    <t>Rogelio Carig</t>
+  </si>
+  <si>
+    <t>Rousnelia Cariaso</t>
+  </si>
+  <si>
+    <t>Alejandro Bucsit Jr.</t>
+  </si>
+  <si>
+    <t>Sheena Fe Domingo</t>
+  </si>
+  <si>
+    <t>Julius Nebrija</t>
+  </si>
+  <si>
+    <t>Dolores Almodovar</t>
+  </si>
+  <si>
+    <t>Felix Olidan</t>
+  </si>
+  <si>
+    <t>NAGSARABOAN</t>
+  </si>
+  <si>
+    <t>Rhea Andrade</t>
+  </si>
+  <si>
+    <t>Elena Argonza</t>
+  </si>
+  <si>
+    <t>Angelica Alviar</t>
+  </si>
+  <si>
+    <t>Leonora Alviar</t>
+  </si>
+  <si>
+    <t>Lydia Ancheta</t>
+  </si>
+  <si>
+    <t>Paulino Bajo Sr.</t>
+  </si>
+  <si>
+    <t>Nora Buen</t>
+  </si>
+  <si>
+    <t>Marilyn Buen</t>
+  </si>
+  <si>
+    <t>Herminia Buton</t>
+  </si>
+  <si>
+    <t>Michelle Binocyad</t>
+  </si>
+  <si>
+    <t>Melanie Buemio</t>
+  </si>
+  <si>
+    <t>Ma. Theresa Buemio</t>
+  </si>
+  <si>
+    <t>Anna Mae Buemio</t>
+  </si>
+  <si>
+    <t>Mary Ann Buemio</t>
+  </si>
+  <si>
+    <t>Yolanda Buemio</t>
+  </si>
+  <si>
+    <t>Everlyn Baltar</t>
+  </si>
+  <si>
+    <t>Elena Borja</t>
+  </si>
+  <si>
+    <t>Myra Buen</t>
+  </si>
+  <si>
+    <t>John John Buen</t>
+  </si>
+  <si>
+    <t>Clarita Buen</t>
+  </si>
+  <si>
+    <t>Josephine Buen</t>
+  </si>
+  <si>
+    <t>Julie Ann Buen</t>
+  </si>
+  <si>
+    <t>Vangie Buen</t>
+  </si>
+  <si>
+    <t>Delia Buen</t>
+  </si>
+  <si>
+    <t>Cecilia Gonzaga</t>
+  </si>
+  <si>
+    <t>Manilyn Larga</t>
+  </si>
+  <si>
+    <t>Emelyn Capellan</t>
+  </si>
+  <si>
+    <t>Julie Ann Caymo</t>
+  </si>
+  <si>
+    <t>Irene Calibuso</t>
+  </si>
+  <si>
+    <t>Girlie Padilla</t>
+  </si>
+  <si>
+    <t>Cherry Mae Bucaoto</t>
+  </si>
+  <si>
+    <t>Jesrain Atheny Collado</t>
+  </si>
+  <si>
+    <t>Rowena Dulay</t>
+  </si>
+  <si>
+    <t>Ligaya Dulay</t>
+  </si>
+  <si>
+    <t>Narcisa Dulay</t>
+  </si>
+  <si>
+    <t>Segunda Dulay</t>
+  </si>
+  <si>
+    <t>Lilia Dulay</t>
+  </si>
+  <si>
+    <t>Roger Dulay</t>
+  </si>
+  <si>
+    <t>Jocelyn Dulay</t>
+  </si>
+  <si>
+    <t>Gemma Dulay</t>
+  </si>
+  <si>
+    <t>Evangeline Dulay</t>
+  </si>
+  <si>
+    <t>Angelina Dulay</t>
+  </si>
+  <si>
+    <t>Sofronio Dulay</t>
+  </si>
+  <si>
+    <t>Eva Myra Dulay</t>
+  </si>
+  <si>
+    <t>Purificacion Dulay</t>
+  </si>
+  <si>
+    <t>Maricris Foronda</t>
+  </si>
+  <si>
+    <t>Margie Gumaru</t>
+  </si>
+  <si>
+    <t>Elena Gumaru</t>
+  </si>
+  <si>
+    <t>Relyn De Guzman</t>
+  </si>
+  <si>
+    <t>Lita De Guzman</t>
+  </si>
+  <si>
+    <t>Fredelita Dagang</t>
+  </si>
+  <si>
+    <t>Marilou Jaravata</t>
+  </si>
+  <si>
+    <t>Marife Gabutero</t>
+  </si>
+  <si>
+    <t>Elnora Karganilla</t>
+  </si>
+  <si>
+    <t>Ma. Rocille Licudan</t>
+  </si>
+  <si>
+    <t>Miriam Lloveras</t>
+  </si>
+  <si>
+    <t>Flordelina Lictaoa</t>
+  </si>
+  <si>
+    <t>Perlita Laporga</t>
+  </si>
+  <si>
+    <t>Bernardina Lumanog</t>
+  </si>
+  <si>
+    <t>Mary Rose Montalla</t>
+  </si>
+  <si>
+    <t>Josephine Martinez</t>
+  </si>
+  <si>
+    <t>Cezaria Malano</t>
+  </si>
+  <si>
+    <t>Catalina Malano</t>
+  </si>
+  <si>
+    <t>Maranjo Magtibay</t>
+  </si>
+  <si>
+    <t>Marcelina Noserale</t>
+  </si>
+  <si>
+    <t>Domilyn Nerveza</t>
+  </si>
+  <si>
+    <t>Paulina Nebres</t>
+  </si>
+  <si>
+    <t>Adelfa Pagaduan</t>
+  </si>
+  <si>
+    <t>Sitti Kalma Pagaduan</t>
+  </si>
+  <si>
+    <t>Ma. Panoringan</t>
+  </si>
+  <si>
+    <t>Guillerma Rabara</t>
+  </si>
+  <si>
+    <t>Milagros Rabara</t>
+  </si>
+  <si>
+    <t>Jonalyn Rabara</t>
+  </si>
+  <si>
+    <t>Angela Rabara</t>
+  </si>
+  <si>
+    <t>Ferdinand Rabara Jr.</t>
+  </si>
+  <si>
+    <t>Rogelio Rabara</t>
+  </si>
+  <si>
+    <t>Erlinda Ladion Rabara</t>
+  </si>
+  <si>
+    <t>Carmen Rabara</t>
+  </si>
+  <si>
+    <t>Clarita Rabara</t>
+  </si>
+  <si>
+    <t>Alma Rabara</t>
+  </si>
+  <si>
+    <t>Adela Rabara</t>
+  </si>
+  <si>
+    <t>Severna Rabara</t>
+  </si>
+  <si>
+    <t>Susan Sobrepeña</t>
+  </si>
+  <si>
+    <t>Juliana Sobrepeña</t>
+  </si>
+  <si>
+    <t>Renalyn Samonte</t>
+  </si>
+  <si>
+    <t>Vilma Samonte</t>
+  </si>
+  <si>
+    <t>Felicidad Samonte</t>
+  </si>
+  <si>
+    <t>Angela Samonte</t>
+  </si>
+  <si>
+    <t>Betty Tagiba</t>
+  </si>
+  <si>
+    <t>Precy Cariño</t>
+  </si>
+  <si>
+    <t>Cristine Soligen</t>
+  </si>
+  <si>
+    <t>Myrna Samonte</t>
+  </si>
+  <si>
+    <t>Freddie Villanueva</t>
+  </si>
+  <si>
+    <t>Myla Villanueva</t>
+  </si>
+  <si>
+    <t>Martin Villanueva</t>
+  </si>
+  <si>
+    <t>Marissa Valmonte</t>
+  </si>
+  <si>
+    <t>Amelia Valmonte</t>
+  </si>
+  <si>
+    <t>Adela Villanueva</t>
+  </si>
+  <si>
+    <t>Florencia Villanueva</t>
+  </si>
+  <si>
+    <t>Mary Ann Villanueva</t>
+  </si>
+  <si>
+    <t>Eliza Palma</t>
+  </si>
+  <si>
+    <t>Catalina Villanueva</t>
+  </si>
+  <si>
+    <t>Lucrecia Valmores</t>
+  </si>
+  <si>
+    <t>Francia Valmores</t>
+  </si>
+  <si>
+    <t>Emel- Ann Villanueva</t>
+  </si>
+  <si>
+    <t>Severino Valentino</t>
+  </si>
+  <si>
+    <t>Eleanor Ariz</t>
+  </si>
+  <si>
+    <t>Pacita Pabalan</t>
+  </si>
+  <si>
+    <t>Carmen Posadas</t>
+  </si>
+  <si>
+    <t>Enriquetta Valmonte</t>
+  </si>
+  <si>
+    <t>Elena Valmonte</t>
+  </si>
+  <si>
+    <t>Fe Lumanog</t>
+  </si>
+  <si>
+    <t>POBLACION</t>
+  </si>
+  <si>
+    <t>Rogelio Corial</t>
+  </si>
+  <si>
+    <t>Conchita Corial</t>
+  </si>
+  <si>
+    <t>Erlinda Corial</t>
+  </si>
+  <si>
+    <t>Sonia Lumangcas</t>
+  </si>
+  <si>
+    <t>Gloria Gadiano</t>
+  </si>
+  <si>
+    <t>Ma. Teresita Custodio</t>
+  </si>
+  <si>
+    <t>Norma Ganaden</t>
+  </si>
+  <si>
+    <t>Noemi Macadaeg</t>
+  </si>
+  <si>
+    <t>Arnulfo Suyat</t>
+  </si>
+  <si>
+    <t>Antonio Pascua</t>
+  </si>
+  <si>
+    <t>Conchita Apolonio</t>
+  </si>
+  <si>
+    <t>Beatrise Carig</t>
+  </si>
+  <si>
+    <t>Esperanza Carig</t>
+  </si>
+  <si>
+    <t>Conchita Dulay</t>
+  </si>
+  <si>
+    <t>Hildegardi Frianeza</t>
+  </si>
+  <si>
+    <t>Alfredo Higona Sr.</t>
+  </si>
+  <si>
+    <t>Agnes Carig</t>
+  </si>
+  <si>
+    <t>Rommel Carig</t>
+  </si>
+  <si>
+    <t>Joy Salazar</t>
+  </si>
+  <si>
+    <t>Francisca Quinto</t>
+  </si>
+  <si>
+    <t>Rocelia Noces</t>
+  </si>
+  <si>
+    <t>Alfredo Higoy</t>
+  </si>
+  <si>
+    <t>Rowena Diego</t>
+  </si>
+  <si>
+    <t>Flora Gimeno</t>
+  </si>
+  <si>
+    <t>Marcelino Higoy</t>
+  </si>
+  <si>
+    <t>Germilina Abubo</t>
+  </si>
+  <si>
+    <t>Romel Ebreo</t>
+  </si>
+  <si>
+    <t>Felina Pabalan</t>
+  </si>
+  <si>
+    <t>Joel Casem</t>
+  </si>
+  <si>
+    <t>Aquilino Nabor</t>
+  </si>
+  <si>
+    <t>Avelino Jabillonar</t>
+  </si>
+  <si>
+    <t>Alfredo Cuevas</t>
+  </si>
+  <si>
+    <t>Johnny Fabro</t>
+  </si>
+  <si>
+    <t>Erlinda Calub</t>
+  </si>
+  <si>
+    <t>Rosita Licudan</t>
+  </si>
+  <si>
+    <t>Rhodora Sabado</t>
+  </si>
+  <si>
+    <t>Sonia Reyes</t>
+  </si>
+  <si>
+    <t>Josephine Mangale</t>
+  </si>
+  <si>
+    <t>Almida Espina</t>
+  </si>
+  <si>
+    <t>Gloria Cabanban</t>
+  </si>
+  <si>
+    <t>Anthony Pineda</t>
+  </si>
+  <si>
+    <t>Magdalena Murao</t>
+  </si>
+  <si>
+    <t>Rosalinda Dumale</t>
+  </si>
+  <si>
+    <t>Madonna Alminiana</t>
+  </si>
+  <si>
+    <t>Magdalena Padegdeg</t>
+  </si>
+  <si>
+    <t>Delfine Cabradilla</t>
+  </si>
+  <si>
+    <t>Consuelo Cariaso</t>
+  </si>
+  <si>
+    <t>Imelda Guerrero</t>
+  </si>
+  <si>
+    <t>Carlota Miranda</t>
+  </si>
+  <si>
+    <t>Violeta Licudan</t>
+  </si>
+  <si>
+    <t>Mariano Acosta</t>
+  </si>
+  <si>
+    <t>Felix Acosta</t>
+  </si>
+  <si>
+    <t>Domingo Ringor</t>
+  </si>
+  <si>
+    <t>Johnny Murao</t>
+  </si>
+  <si>
+    <t>Erlinda Tacles</t>
+  </si>
+  <si>
+    <t>Marisssa Daduya</t>
+  </si>
+  <si>
+    <t>Emilio Padua</t>
+  </si>
+  <si>
+    <t>Merry Ann Gudoy</t>
+  </si>
+  <si>
+    <t>Jaime Lluveras</t>
+  </si>
+  <si>
+    <t>Erlinda Valdez</t>
+  </si>
+  <si>
+    <t>Salvacion Estepa</t>
+  </si>
+  <si>
+    <t>Jocelyn Bucsit</t>
+  </si>
+  <si>
+    <t>Matelda Obra</t>
+  </si>
+  <si>
+    <t>Virgina Barcelona</t>
+  </si>
+  <si>
+    <t>Crisencia Carig</t>
+  </si>
+  <si>
+    <t>Severino Carig</t>
+  </si>
+  <si>
+    <t>Milagros Murao</t>
+  </si>
+  <si>
+    <t>Merissa Buccat</t>
+  </si>
+  <si>
+    <t>Culeta Carig</t>
+  </si>
+  <si>
+    <t>Hinaro Valdez</t>
+  </si>
+  <si>
+    <t>Rowena Ann Diego</t>
   </si>
 </sst>
 </file>
@@ -429,21 +1251,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C295"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A256" workbookViewId="0">
+      <selection activeCell="B288" sqref="B288"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="25.140625" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="26" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>289</v>
+        <v>2234</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -454,7 +1276,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>290</v>
+        <v>2235</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -465,7 +1287,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>291</v>
+        <v>2236</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -476,7 +1298,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>292</v>
+        <v>2237</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -487,7 +1309,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>293</v>
+        <v>2238</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -498,7 +1320,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>294</v>
+        <v>2239</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -509,7 +1331,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>295</v>
+        <v>2240</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
@@ -520,7 +1342,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>296</v>
+        <v>2241</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -531,7 +1353,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>297</v>
+        <v>2242</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
@@ -542,7 +1364,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>298</v>
+        <v>2243</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
@@ -553,7 +1375,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>299</v>
+        <v>2244</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
@@ -564,7 +1386,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>300</v>
+        <v>2245</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
@@ -575,7 +1397,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>301</v>
+        <v>2246</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -586,7 +1408,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>302</v>
+        <v>2247</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
@@ -597,7 +1419,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>303</v>
+        <v>2248</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
@@ -608,7 +1430,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>304</v>
+        <v>2249</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
@@ -619,7 +1441,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>305</v>
+        <v>2250</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
@@ -630,7 +1452,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>306</v>
+        <v>2251</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
@@ -641,7 +1463,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>307</v>
+        <v>2252</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
@@ -652,7 +1474,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>308</v>
+        <v>2253</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
@@ -663,7 +1485,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>309</v>
+        <v>2254</v>
       </c>
       <c r="B21" t="s">
         <v>21</v>
@@ -674,7 +1496,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>310</v>
+        <v>2255</v>
       </c>
       <c r="B22" t="s">
         <v>22</v>
@@ -685,7 +1507,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>311</v>
+        <v>2256</v>
       </c>
       <c r="B23" t="s">
         <v>23</v>
@@ -696,13 +1518,2994 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>312</v>
+        <v>2257</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>0</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2258</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2259</v>
+      </c>
+      <c r="B26" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2260</v>
+      </c>
+      <c r="B27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2261</v>
+      </c>
+      <c r="B28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>2262</v>
+      </c>
+      <c r="B29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>2263</v>
+      </c>
+      <c r="B30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>2264</v>
+      </c>
+      <c r="B31" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>2265</v>
+      </c>
+      <c r="B32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>2266</v>
+      </c>
+      <c r="B33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>2267</v>
+      </c>
+      <c r="B34" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>2268</v>
+      </c>
+      <c r="B35" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>2269</v>
+      </c>
+      <c r="B36" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>2270</v>
+      </c>
+      <c r="B37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>2271</v>
+      </c>
+      <c r="B38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>2272</v>
+      </c>
+      <c r="B39" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>2273</v>
+      </c>
+      <c r="B40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>2274</v>
+      </c>
+      <c r="B41" t="s">
+        <v>42</v>
+      </c>
+      <c r="C41" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>2275</v>
+      </c>
+      <c r="B42" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>2276</v>
+      </c>
+      <c r="B43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>2277</v>
+      </c>
+      <c r="B44" t="s">
+        <v>45</v>
+      </c>
+      <c r="C44" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>2278</v>
+      </c>
+      <c r="B45" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>2279</v>
+      </c>
+      <c r="B46" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>2280</v>
+      </c>
+      <c r="B47" t="s">
+        <v>48</v>
+      </c>
+      <c r="C47" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>2281</v>
+      </c>
+      <c r="B48" t="s">
+        <v>49</v>
+      </c>
+      <c r="C48" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>2282</v>
+      </c>
+      <c r="B49" t="s">
+        <v>50</v>
+      </c>
+      <c r="C49" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>2283</v>
+      </c>
+      <c r="B50" t="s">
+        <v>51</v>
+      </c>
+      <c r="C50" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>2284</v>
+      </c>
+      <c r="B51" t="s">
+        <v>52</v>
+      </c>
+      <c r="C51" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>2285</v>
+      </c>
+      <c r="B52" t="s">
+        <v>53</v>
+      </c>
+      <c r="C52" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>2286</v>
+      </c>
+      <c r="B53" t="s">
+        <v>54</v>
+      </c>
+      <c r="C53" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>2287</v>
+      </c>
+      <c r="B54" t="s">
+        <v>55</v>
+      </c>
+      <c r="C54" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>2288</v>
+      </c>
+      <c r="B55" t="s">
+        <v>56</v>
+      </c>
+      <c r="C55" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>2289</v>
+      </c>
+      <c r="B56" t="s">
+        <v>57</v>
+      </c>
+      <c r="C56" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>2290</v>
+      </c>
+      <c r="B57" t="s">
+        <v>58</v>
+      </c>
+      <c r="C57" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>2291</v>
+      </c>
+      <c r="B58" t="s">
+        <v>59</v>
+      </c>
+      <c r="C58" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>2292</v>
+      </c>
+      <c r="B59" t="s">
+        <v>60</v>
+      </c>
+      <c r="C59" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>2293</v>
+      </c>
+      <c r="B60" t="s">
+        <v>61</v>
+      </c>
+      <c r="C60" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>2294</v>
+      </c>
+      <c r="B61" t="s">
+        <v>62</v>
+      </c>
+      <c r="C61" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>2295</v>
+      </c>
+      <c r="B62" t="s">
+        <v>63</v>
+      </c>
+      <c r="C62" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>2296</v>
+      </c>
+      <c r="B63" t="s">
+        <v>64</v>
+      </c>
+      <c r="C63" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>2297</v>
+      </c>
+      <c r="B64" t="s">
+        <v>65</v>
+      </c>
+      <c r="C64" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>2298</v>
+      </c>
+      <c r="B65" t="s">
+        <v>66</v>
+      </c>
+      <c r="C65" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>2299</v>
+      </c>
+      <c r="B66" t="s">
+        <v>67</v>
+      </c>
+      <c r="C66" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>2300</v>
+      </c>
+      <c r="B67" t="s">
+        <v>68</v>
+      </c>
+      <c r="C67" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>2301</v>
+      </c>
+      <c r="B68" t="s">
+        <v>69</v>
+      </c>
+      <c r="C68" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>2302</v>
+      </c>
+      <c r="B69" t="s">
+        <v>70</v>
+      </c>
+      <c r="C69" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>2303</v>
+      </c>
+      <c r="B70" t="s">
+        <v>71</v>
+      </c>
+      <c r="C70" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>2304</v>
+      </c>
+      <c r="B71" t="s">
+        <v>72</v>
+      </c>
+      <c r="C71" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>2305</v>
+      </c>
+      <c r="B72" t="s">
+        <v>73</v>
+      </c>
+      <c r="C72" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>2306</v>
+      </c>
+      <c r="B73" t="s">
+        <v>74</v>
+      </c>
+      <c r="C73" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>2307</v>
+      </c>
+      <c r="B74" t="s">
+        <v>75</v>
+      </c>
+      <c r="C74" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>2308</v>
+      </c>
+      <c r="B75" t="s">
+        <v>76</v>
+      </c>
+      <c r="C75" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>2309</v>
+      </c>
+      <c r="B76" t="s">
+        <v>77</v>
+      </c>
+      <c r="C76" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>2310</v>
+      </c>
+      <c r="B77" t="s">
+        <v>78</v>
+      </c>
+      <c r="C77" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>2311</v>
+      </c>
+      <c r="B78" t="s">
+        <v>79</v>
+      </c>
+      <c r="C78" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>2312</v>
+      </c>
+      <c r="B79" t="s">
+        <v>80</v>
+      </c>
+      <c r="C79" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>2313</v>
+      </c>
+      <c r="B80" t="s">
+        <v>81</v>
+      </c>
+      <c r="C80" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>2314</v>
+      </c>
+      <c r="B81" t="s">
+        <v>82</v>
+      </c>
+      <c r="C81" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>2315</v>
+      </c>
+      <c r="B82" t="s">
+        <v>83</v>
+      </c>
+      <c r="C82" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>2316</v>
+      </c>
+      <c r="B83" t="s">
+        <v>84</v>
+      </c>
+      <c r="C83" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>2317</v>
+      </c>
+      <c r="B84" t="s">
+        <v>85</v>
+      </c>
+      <c r="C84" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>2318</v>
+      </c>
+      <c r="B85" t="s">
+        <v>86</v>
+      </c>
+      <c r="C85" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>2319</v>
+      </c>
+      <c r="B86" t="s">
+        <v>87</v>
+      </c>
+      <c r="C86" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>2320</v>
+      </c>
+      <c r="B87" t="s">
+        <v>88</v>
+      </c>
+      <c r="C87" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>2321</v>
+      </c>
+      <c r="B88" t="s">
+        <v>89</v>
+      </c>
+      <c r="C88" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>2322</v>
+      </c>
+      <c r="B89" t="s">
+        <v>90</v>
+      </c>
+      <c r="C89" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>2323</v>
+      </c>
+      <c r="B90" t="s">
+        <v>91</v>
+      </c>
+      <c r="C90" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>2324</v>
+      </c>
+      <c r="B91" t="s">
+        <v>92</v>
+      </c>
+      <c r="C91" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>2325</v>
+      </c>
+      <c r="B92" t="s">
+        <v>93</v>
+      </c>
+      <c r="C92" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>2326</v>
+      </c>
+      <c r="B93" t="s">
+        <v>94</v>
+      </c>
+      <c r="C93" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>2327</v>
+      </c>
+      <c r="B94" t="s">
+        <v>95</v>
+      </c>
+      <c r="C94" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>2328</v>
+      </c>
+      <c r="B95" t="s">
+        <v>96</v>
+      </c>
+      <c r="C95" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>2329</v>
+      </c>
+      <c r="B96" t="s">
+        <v>97</v>
+      </c>
+      <c r="C96" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>2330</v>
+      </c>
+      <c r="B97" t="s">
+        <v>98</v>
+      </c>
+      <c r="C97" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>2331</v>
+      </c>
+      <c r="B98" t="s">
+        <v>99</v>
+      </c>
+      <c r="C98" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>2332</v>
+      </c>
+      <c r="B99" t="s">
+        <v>100</v>
+      </c>
+      <c r="C99" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>2333</v>
+      </c>
+      <c r="B100" t="s">
+        <v>101</v>
+      </c>
+      <c r="C100" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>2334</v>
+      </c>
+      <c r="B101" t="s">
+        <v>102</v>
+      </c>
+      <c r="C101" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>2335</v>
+      </c>
+      <c r="B102" t="s">
+        <v>103</v>
+      </c>
+      <c r="C102" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>2336</v>
+      </c>
+      <c r="B103" t="s">
+        <v>104</v>
+      </c>
+      <c r="C103" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>2337</v>
+      </c>
+      <c r="B104" t="s">
+        <v>105</v>
+      </c>
+      <c r="C104" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>2338</v>
+      </c>
+      <c r="B105" t="s">
+        <v>106</v>
+      </c>
+      <c r="C105" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>2339</v>
+      </c>
+      <c r="B106" t="s">
+        <v>107</v>
+      </c>
+      <c r="C106" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>2340</v>
+      </c>
+      <c r="B107" t="s">
+        <v>108</v>
+      </c>
+      <c r="C107" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>2341</v>
+      </c>
+      <c r="B108" t="s">
+        <v>109</v>
+      </c>
+      <c r="C108" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>2342</v>
+      </c>
+      <c r="B109" t="s">
+        <v>110</v>
+      </c>
+      <c r="C109" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>2343</v>
+      </c>
+      <c r="B110" t="s">
+        <v>111</v>
+      </c>
+      <c r="C110" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>2344</v>
+      </c>
+      <c r="B111" t="s">
+        <v>112</v>
+      </c>
+      <c r="C111" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>2345</v>
+      </c>
+      <c r="B112" t="s">
+        <v>113</v>
+      </c>
+      <c r="C112" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>2346</v>
+      </c>
+      <c r="B113" t="s">
+        <v>115</v>
+      </c>
+      <c r="C113" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>2347</v>
+      </c>
+      <c r="B114" t="s">
+        <v>116</v>
+      </c>
+      <c r="C114" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>2348</v>
+      </c>
+      <c r="B115" t="s">
+        <v>117</v>
+      </c>
+      <c r="C115" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>2349</v>
+      </c>
+      <c r="B116" t="s">
+        <v>118</v>
+      </c>
+      <c r="C116" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>2350</v>
+      </c>
+      <c r="B117" t="s">
+        <v>119</v>
+      </c>
+      <c r="C117" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>2351</v>
+      </c>
+      <c r="B118" t="s">
+        <v>120</v>
+      </c>
+      <c r="C118" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>2352</v>
+      </c>
+      <c r="B119" t="s">
+        <v>121</v>
+      </c>
+      <c r="C119" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>2353</v>
+      </c>
+      <c r="B120" t="s">
+        <v>122</v>
+      </c>
+      <c r="C120" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>2354</v>
+      </c>
+      <c r="B121" t="s">
+        <v>123</v>
+      </c>
+      <c r="C121" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>2355</v>
+      </c>
+      <c r="B122" t="s">
+        <v>124</v>
+      </c>
+      <c r="C122" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>2356</v>
+      </c>
+      <c r="B123" t="s">
+        <v>125</v>
+      </c>
+      <c r="C123" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>2357</v>
+      </c>
+      <c r="B124" t="s">
+        <v>126</v>
+      </c>
+      <c r="C124" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>2358</v>
+      </c>
+      <c r="B125" t="s">
+        <v>127</v>
+      </c>
+      <c r="C125" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>2359</v>
+      </c>
+      <c r="B126" t="s">
+        <v>128</v>
+      </c>
+      <c r="C126" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>2360</v>
+      </c>
+      <c r="B127" t="s">
+        <v>129</v>
+      </c>
+      <c r="C127" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>2361</v>
+      </c>
+      <c r="B128" t="s">
+        <v>130</v>
+      </c>
+      <c r="C128" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>2362</v>
+      </c>
+      <c r="B129" t="s">
+        <v>131</v>
+      </c>
+      <c r="C129" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>2363</v>
+      </c>
+      <c r="B130" t="s">
+        <v>132</v>
+      </c>
+      <c r="C130" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>2364</v>
+      </c>
+      <c r="B131" t="s">
+        <v>133</v>
+      </c>
+      <c r="C131" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>2365</v>
+      </c>
+      <c r="B132" t="s">
+        <v>134</v>
+      </c>
+      <c r="C132" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>2366</v>
+      </c>
+      <c r="B133" t="s">
+        <v>135</v>
+      </c>
+      <c r="C133" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>2367</v>
+      </c>
+      <c r="B134" t="s">
+        <v>136</v>
+      </c>
+      <c r="C134" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>2368</v>
+      </c>
+      <c r="B135" t="s">
+        <v>137</v>
+      </c>
+      <c r="C135" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>2369</v>
+      </c>
+      <c r="B136" t="s">
+        <v>138</v>
+      </c>
+      <c r="C136" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>2370</v>
+      </c>
+      <c r="B137" t="s">
+        <v>139</v>
+      </c>
+      <c r="C137" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>2371</v>
+      </c>
+      <c r="B138" t="s">
+        <v>140</v>
+      </c>
+      <c r="C138" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>2372</v>
+      </c>
+      <c r="B139" t="s">
+        <v>141</v>
+      </c>
+      <c r="C139" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>2373</v>
+      </c>
+      <c r="B140" t="s">
+        <v>142</v>
+      </c>
+      <c r="C140" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>2374</v>
+      </c>
+      <c r="B141" t="s">
+        <v>143</v>
+      </c>
+      <c r="C141" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>2375</v>
+      </c>
+      <c r="B142" t="s">
+        <v>144</v>
+      </c>
+      <c r="C142" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>2376</v>
+      </c>
+      <c r="B143" t="s">
+        <v>145</v>
+      </c>
+      <c r="C143" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>2377</v>
+      </c>
+      <c r="B144" t="s">
+        <v>146</v>
+      </c>
+      <c r="C144" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>2378</v>
+      </c>
+      <c r="B145" t="s">
+        <v>147</v>
+      </c>
+      <c r="C145" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>2379</v>
+      </c>
+      <c r="B146" t="s">
+        <v>148</v>
+      </c>
+      <c r="C146" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>2380</v>
+      </c>
+      <c r="B147" t="s">
+        <v>149</v>
+      </c>
+      <c r="C147" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>2381</v>
+      </c>
+      <c r="B148" t="s">
+        <v>150</v>
+      </c>
+      <c r="C148" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>2382</v>
+      </c>
+      <c r="B149" t="s">
+        <v>151</v>
+      </c>
+      <c r="C149" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>2383</v>
+      </c>
+      <c r="B150" t="s">
+        <v>152</v>
+      </c>
+      <c r="C150" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>2384</v>
+      </c>
+      <c r="B151" t="s">
+        <v>153</v>
+      </c>
+      <c r="C151" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>2385</v>
+      </c>
+      <c r="B152" t="s">
+        <v>154</v>
+      </c>
+      <c r="C152" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>2386</v>
+      </c>
+      <c r="B153" t="s">
+        <v>155</v>
+      </c>
+      <c r="C153" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>2387</v>
+      </c>
+      <c r="B154" t="s">
+        <v>156</v>
+      </c>
+      <c r="C154" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>2388</v>
+      </c>
+      <c r="B155" t="s">
+        <v>157</v>
+      </c>
+      <c r="C155" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>2389</v>
+      </c>
+      <c r="B156" t="s">
+        <v>158</v>
+      </c>
+      <c r="C156" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>2390</v>
+      </c>
+      <c r="B157" t="s">
+        <v>159</v>
+      </c>
+      <c r="C157" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>2391</v>
+      </c>
+      <c r="B158" t="s">
+        <v>160</v>
+      </c>
+      <c r="C158" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>2392</v>
+      </c>
+      <c r="B159" t="s">
+        <v>161</v>
+      </c>
+      <c r="C159" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>2393</v>
+      </c>
+      <c r="B160" t="s">
+        <v>162</v>
+      </c>
+      <c r="C160" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>2394</v>
+      </c>
+      <c r="B161" t="s">
+        <v>163</v>
+      </c>
+      <c r="C161" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>2395</v>
+      </c>
+      <c r="B162" t="s">
+        <v>164</v>
+      </c>
+      <c r="C162" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>2396</v>
+      </c>
+      <c r="B163" t="s">
+        <v>165</v>
+      </c>
+      <c r="C163" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>2397</v>
+      </c>
+      <c r="B164" t="s">
+        <v>166</v>
+      </c>
+      <c r="C164" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>2398</v>
+      </c>
+      <c r="B165" t="s">
+        <v>167</v>
+      </c>
+      <c r="C165" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>2399</v>
+      </c>
+      <c r="B166" t="s">
+        <v>168</v>
+      </c>
+      <c r="C166" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>2400</v>
+      </c>
+      <c r="B167" t="s">
+        <v>169</v>
+      </c>
+      <c r="C167" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>2401</v>
+      </c>
+      <c r="B168" t="s">
+        <v>170</v>
+      </c>
+      <c r="C168" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>2402</v>
+      </c>
+      <c r="B169" t="s">
+        <v>171</v>
+      </c>
+      <c r="C169" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>2403</v>
+      </c>
+      <c r="B170" t="s">
+        <v>172</v>
+      </c>
+      <c r="C170" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>2404</v>
+      </c>
+      <c r="B171" t="s">
+        <v>173</v>
+      </c>
+      <c r="C171" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>2405</v>
+      </c>
+      <c r="B172" t="s">
+        <v>174</v>
+      </c>
+      <c r="C172" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>2406</v>
+      </c>
+      <c r="B173" t="s">
+        <v>175</v>
+      </c>
+      <c r="C173" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>2407</v>
+      </c>
+      <c r="B174" t="s">
+        <v>176</v>
+      </c>
+      <c r="C174" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>2408</v>
+      </c>
+      <c r="B175" t="s">
+        <v>177</v>
+      </c>
+      <c r="C175" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>2409</v>
+      </c>
+      <c r="B176" t="s">
+        <v>178</v>
+      </c>
+      <c r="C176" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>2410</v>
+      </c>
+      <c r="B177" t="s">
+        <v>179</v>
+      </c>
+      <c r="C177" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>2411</v>
+      </c>
+      <c r="B178" t="s">
+        <v>180</v>
+      </c>
+      <c r="C178" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>2412</v>
+      </c>
+      <c r="B179" t="s">
+        <v>181</v>
+      </c>
+      <c r="C179" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>2413</v>
+      </c>
+      <c r="B180" t="s">
+        <v>182</v>
+      </c>
+      <c r="C180" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>2414</v>
+      </c>
+      <c r="B181" t="s">
+        <v>183</v>
+      </c>
+      <c r="C181" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>2415</v>
+      </c>
+      <c r="B182" t="s">
+        <v>184</v>
+      </c>
+      <c r="C182" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>2416</v>
+      </c>
+      <c r="B183" t="s">
+        <v>185</v>
+      </c>
+      <c r="C183" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>2417</v>
+      </c>
+      <c r="B184" t="s">
+        <v>186</v>
+      </c>
+      <c r="C184" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>2418</v>
+      </c>
+      <c r="B185" t="s">
+        <v>187</v>
+      </c>
+      <c r="C185" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>2419</v>
+      </c>
+      <c r="B186" t="s">
+        <v>188</v>
+      </c>
+      <c r="C186" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>2420</v>
+      </c>
+      <c r="B187" t="s">
+        <v>189</v>
+      </c>
+      <c r="C187" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>2421</v>
+      </c>
+      <c r="B188" t="s">
+        <v>190</v>
+      </c>
+      <c r="C188" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>2422</v>
+      </c>
+      <c r="B189" t="s">
+        <v>191</v>
+      </c>
+      <c r="C189" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>2423</v>
+      </c>
+      <c r="B190" t="s">
+        <v>192</v>
+      </c>
+      <c r="C190" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>2424</v>
+      </c>
+      <c r="B191" t="s">
+        <v>193</v>
+      </c>
+      <c r="C191" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>2425</v>
+      </c>
+      <c r="B192" t="s">
+        <v>194</v>
+      </c>
+      <c r="C192" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>2426</v>
+      </c>
+      <c r="B193" t="s">
+        <v>195</v>
+      </c>
+      <c r="C193" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>2427</v>
+      </c>
+      <c r="B194" t="s">
+        <v>196</v>
+      </c>
+      <c r="C194" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>2428</v>
+      </c>
+      <c r="B195" t="s">
+        <v>197</v>
+      </c>
+      <c r="C195" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>2429</v>
+      </c>
+      <c r="B196" t="s">
+        <v>198</v>
+      </c>
+      <c r="C196" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>2430</v>
+      </c>
+      <c r="B197" t="s">
+        <v>199</v>
+      </c>
+      <c r="C197" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>2431</v>
+      </c>
+      <c r="B198" t="s">
+        <v>200</v>
+      </c>
+      <c r="C198" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>2432</v>
+      </c>
+      <c r="B199" t="s">
+        <v>201</v>
+      </c>
+      <c r="C199" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>2433</v>
+      </c>
+      <c r="B200" t="s">
+        <v>202</v>
+      </c>
+      <c r="C200" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>2434</v>
+      </c>
+      <c r="B201" t="s">
+        <v>203</v>
+      </c>
+      <c r="C201" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>2435</v>
+      </c>
+      <c r="B202" t="s">
+        <v>204</v>
+      </c>
+      <c r="C202" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>2436</v>
+      </c>
+      <c r="B203" t="s">
+        <v>205</v>
+      </c>
+      <c r="C203" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>2437</v>
+      </c>
+      <c r="B204" t="s">
+        <v>206</v>
+      </c>
+      <c r="C204" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>2438</v>
+      </c>
+      <c r="B205" t="s">
+        <v>207</v>
+      </c>
+      <c r="C205" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>2439</v>
+      </c>
+      <c r="B206" t="s">
+        <v>208</v>
+      </c>
+      <c r="C206" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>2440</v>
+      </c>
+      <c r="B207" t="s">
+        <v>209</v>
+      </c>
+      <c r="C207" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>2441</v>
+      </c>
+      <c r="B208" t="s">
+        <v>210</v>
+      </c>
+      <c r="C208" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>2442</v>
+      </c>
+      <c r="B209" t="s">
+        <v>211</v>
+      </c>
+      <c r="C209" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>2443</v>
+      </c>
+      <c r="B210" t="s">
+        <v>212</v>
+      </c>
+      <c r="C210" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>2444</v>
+      </c>
+      <c r="B211" t="s">
+        <v>213</v>
+      </c>
+      <c r="C211" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>2445</v>
+      </c>
+      <c r="B212" t="s">
+        <v>214</v>
+      </c>
+      <c r="C212" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>2446</v>
+      </c>
+      <c r="B213" t="s">
+        <v>215</v>
+      </c>
+      <c r="C213" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>2447</v>
+      </c>
+      <c r="B214" t="s">
+        <v>216</v>
+      </c>
+      <c r="C214" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>2448</v>
+      </c>
+      <c r="B215" t="s">
+        <v>217</v>
+      </c>
+      <c r="C215" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>2449</v>
+      </c>
+      <c r="B216" t="s">
+        <v>218</v>
+      </c>
+      <c r="C216" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>2450</v>
+      </c>
+      <c r="B217" t="s">
+        <v>219</v>
+      </c>
+      <c r="C217" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>2451</v>
+      </c>
+      <c r="B218" t="s">
+        <v>220</v>
+      </c>
+      <c r="C218" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>2452</v>
+      </c>
+      <c r="B219" t="s">
+        <v>221</v>
+      </c>
+      <c r="C219" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>2453</v>
+      </c>
+      <c r="B220" t="s">
+        <v>222</v>
+      </c>
+      <c r="C220" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>2454</v>
+      </c>
+      <c r="B221" t="s">
+        <v>223</v>
+      </c>
+      <c r="C221" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>2455</v>
+      </c>
+      <c r="B222" t="s">
+        <v>224</v>
+      </c>
+      <c r="C222" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>2456</v>
+      </c>
+      <c r="B223" t="s">
+        <v>225</v>
+      </c>
+      <c r="C223" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>2457</v>
+      </c>
+      <c r="B224" t="s">
+        <v>226</v>
+      </c>
+      <c r="C224" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>2458</v>
+      </c>
+      <c r="B225" t="s">
+        <v>228</v>
+      </c>
+      <c r="C225" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>2459</v>
+      </c>
+      <c r="B226" t="s">
+        <v>229</v>
+      </c>
+      <c r="C226" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>2460</v>
+      </c>
+      <c r="B227" t="s">
+        <v>230</v>
+      </c>
+      <c r="C227" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>2461</v>
+      </c>
+      <c r="B228" t="s">
+        <v>231</v>
+      </c>
+      <c r="C228" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>2462</v>
+      </c>
+      <c r="B229" t="s">
+        <v>232</v>
+      </c>
+      <c r="C229" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>2463</v>
+      </c>
+      <c r="B230" t="s">
+        <v>233</v>
+      </c>
+      <c r="C230" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>2464</v>
+      </c>
+      <c r="B231" t="s">
+        <v>234</v>
+      </c>
+      <c r="C231" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>2465</v>
+      </c>
+      <c r="B232" t="s">
+        <v>235</v>
+      </c>
+      <c r="C232" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>2466</v>
+      </c>
+      <c r="B233" t="s">
+        <v>236</v>
+      </c>
+      <c r="C233" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>2467</v>
+      </c>
+      <c r="B234" t="s">
+        <v>237</v>
+      </c>
+      <c r="C234" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>2468</v>
+      </c>
+      <c r="B235" t="s">
+        <v>238</v>
+      </c>
+      <c r="C235" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>2469</v>
+      </c>
+      <c r="B236" t="s">
+        <v>239</v>
+      </c>
+      <c r="C236" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>2470</v>
+      </c>
+      <c r="B237" t="s">
+        <v>240</v>
+      </c>
+      <c r="C237" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>2471</v>
+      </c>
+      <c r="B238" t="s">
+        <v>241</v>
+      </c>
+      <c r="C238" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>2472</v>
+      </c>
+      <c r="B239" t="s">
+        <v>242</v>
+      </c>
+      <c r="C239" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>2473</v>
+      </c>
+      <c r="B240" t="s">
+        <v>243</v>
+      </c>
+      <c r="C240" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>2474</v>
+      </c>
+      <c r="B241" t="s">
+        <v>244</v>
+      </c>
+      <c r="C241" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>2475</v>
+      </c>
+      <c r="B242" t="s">
+        <v>245</v>
+      </c>
+      <c r="C242" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>2476</v>
+      </c>
+      <c r="B243" t="s">
+        <v>246</v>
+      </c>
+      <c r="C243" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>2477</v>
+      </c>
+      <c r="B244" t="s">
+        <v>247</v>
+      </c>
+      <c r="C244" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>2478</v>
+      </c>
+      <c r="B245" t="s">
+        <v>248</v>
+      </c>
+      <c r="C245" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>2479</v>
+      </c>
+      <c r="B246" t="s">
+        <v>249</v>
+      </c>
+      <c r="C246" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>2480</v>
+      </c>
+      <c r="B247" t="s">
+        <v>250</v>
+      </c>
+      <c r="C247" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>2481</v>
+      </c>
+      <c r="B248" t="s">
+        <v>251</v>
+      </c>
+      <c r="C248" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>2482</v>
+      </c>
+      <c r="B249" t="s">
+        <v>252</v>
+      </c>
+      <c r="C249" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>2483</v>
+      </c>
+      <c r="B250" t="s">
+        <v>253</v>
+      </c>
+      <c r="C250" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>2484</v>
+      </c>
+      <c r="B251" t="s">
+        <v>254</v>
+      </c>
+      <c r="C251" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>2485</v>
+      </c>
+      <c r="B252" t="s">
+        <v>255</v>
+      </c>
+      <c r="C252" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>2486</v>
+      </c>
+      <c r="B253" t="s">
+        <v>256</v>
+      </c>
+      <c r="C253" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>2487</v>
+      </c>
+      <c r="B254" t="s">
+        <v>257</v>
+      </c>
+      <c r="C254" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>2488</v>
+      </c>
+      <c r="B255" t="s">
+        <v>258</v>
+      </c>
+      <c r="C255" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>2489</v>
+      </c>
+      <c r="B256" t="s">
+        <v>259</v>
+      </c>
+      <c r="C256" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>2490</v>
+      </c>
+      <c r="B257" t="s">
+        <v>260</v>
+      </c>
+      <c r="C257" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>2491</v>
+      </c>
+      <c r="B258" t="s">
+        <v>261</v>
+      </c>
+      <c r="C258" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>2492</v>
+      </c>
+      <c r="B259" t="s">
+        <v>262</v>
+      </c>
+      <c r="C259" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>2493</v>
+      </c>
+      <c r="B260" t="s">
+        <v>263</v>
+      </c>
+      <c r="C260" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>2494</v>
+      </c>
+      <c r="B261" t="s">
+        <v>264</v>
+      </c>
+      <c r="C261" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>2495</v>
+      </c>
+      <c r="B262" t="s">
+        <v>265</v>
+      </c>
+      <c r="C262" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>2496</v>
+      </c>
+      <c r="B263" t="s">
+        <v>266</v>
+      </c>
+      <c r="C263" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>2497</v>
+      </c>
+      <c r="B264" t="s">
+        <v>267</v>
+      </c>
+      <c r="C264" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>2498</v>
+      </c>
+      <c r="B265" t="s">
+        <v>268</v>
+      </c>
+      <c r="C265" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>2499</v>
+      </c>
+      <c r="B266" t="s">
+        <v>269</v>
+      </c>
+      <c r="C266" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>2500</v>
+      </c>
+      <c r="B267" t="s">
+        <v>270</v>
+      </c>
+      <c r="C267" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>2501</v>
+      </c>
+      <c r="B268" t="s">
+        <v>271</v>
+      </c>
+      <c r="C268" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <v>2502</v>
+      </c>
+      <c r="B269" t="s">
+        <v>272</v>
+      </c>
+      <c r="C269" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <v>2503</v>
+      </c>
+      <c r="B270" t="s">
+        <v>273</v>
+      </c>
+      <c r="C270" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <v>2504</v>
+      </c>
+      <c r="B271" t="s">
+        <v>274</v>
+      </c>
+      <c r="C271" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <v>2505</v>
+      </c>
+      <c r="B272" t="s">
+        <v>275</v>
+      </c>
+      <c r="C272" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273">
+        <v>2506</v>
+      </c>
+      <c r="B273" t="s">
+        <v>276</v>
+      </c>
+      <c r="C273" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274">
+        <v>2507</v>
+      </c>
+      <c r="B274" t="s">
+        <v>277</v>
+      </c>
+      <c r="C274" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275">
+        <v>2508</v>
+      </c>
+      <c r="B275" t="s">
+        <v>278</v>
+      </c>
+      <c r="C275" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276">
+        <v>2509</v>
+      </c>
+      <c r="B276" t="s">
+        <v>279</v>
+      </c>
+      <c r="C276" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277">
+        <v>2510</v>
+      </c>
+      <c r="B277" t="s">
+        <v>280</v>
+      </c>
+      <c r="C277" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A278">
+        <v>2511</v>
+      </c>
+      <c r="B278" t="s">
+        <v>281</v>
+      </c>
+      <c r="C278" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279">
+        <v>2512</v>
+      </c>
+      <c r="B279" t="s">
+        <v>282</v>
+      </c>
+      <c r="C279" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280">
+        <v>2513</v>
+      </c>
+      <c r="B280" t="s">
+        <v>283</v>
+      </c>
+      <c r="C280" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281">
+        <v>2514</v>
+      </c>
+      <c r="B281" t="s">
+        <v>284</v>
+      </c>
+      <c r="C281" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A282">
+        <v>2515</v>
+      </c>
+      <c r="B282" t="s">
+        <v>285</v>
+      </c>
+      <c r="C282" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283">
+        <v>2516</v>
+      </c>
+      <c r="B283" t="s">
+        <v>286</v>
+      </c>
+      <c r="C283" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A284">
+        <v>2517</v>
+      </c>
+      <c r="B284" t="s">
+        <v>287</v>
+      </c>
+      <c r="C284" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285">
+        <v>2518</v>
+      </c>
+      <c r="B285" t="s">
+        <v>288</v>
+      </c>
+      <c r="C285" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A286">
+        <v>2519</v>
+      </c>
+      <c r="B286" t="s">
+        <v>289</v>
+      </c>
+      <c r="C286" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287">
+        <v>2520</v>
+      </c>
+      <c r="B287" t="s">
+        <v>290</v>
+      </c>
+      <c r="C287" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288">
+        <v>2521</v>
+      </c>
+      <c r="B288" t="s">
+        <v>291</v>
+      </c>
+      <c r="C288" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A289">
+        <v>2522</v>
+      </c>
+      <c r="B289" t="s">
+        <v>292</v>
+      </c>
+      <c r="C289" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A290">
+        <v>2523</v>
+      </c>
+      <c r="B290" t="s">
+        <v>293</v>
+      </c>
+      <c r="C290" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A291">
+        <v>2524</v>
+      </c>
+      <c r="B291" t="s">
+        <v>294</v>
+      </c>
+      <c r="C291" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A292">
+        <v>2525</v>
+      </c>
+      <c r="B292" t="s">
+        <v>295</v>
+      </c>
+      <c r="C292" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A293">
+        <v>2526</v>
+      </c>
+      <c r="B293" t="s">
+        <v>296</v>
+      </c>
+      <c r="C293" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A294">
+        <v>2527</v>
+      </c>
+      <c r="B294" t="s">
+        <v>297</v>
+      </c>
+      <c r="C294" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A295">
+        <v>2528</v>
+      </c>
+      <c r="B295" t="s">
+        <v>298</v>
+      </c>
+      <c r="C295" t="s">
+        <v>227</v>
       </c>
     </row>
   </sheetData>
